--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/loytel.xlsx
@@ -3217,7 +3217,7 @@
     <t xml:space="preserve">뭐가 궁금해?</t>
   </si>
   <si>
-    <t xml:space="preserve">애쉬와 피아의 일</t>
+    <t xml:space="preserve">애쉬와 피아가 하는 일</t>
   </si>
   <si>
     <t xml:space="preserve">(돌아간다)</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">아아, 로이텔인가. 마침 잘 왔어. 실은 미실리아에서 이 편지가 날아왔다.</t>
   </si>
   <si>
-    <t xml:space="preserve">...편지? 호오, 어디 보자.</t>
+    <t xml:space="preserve">…편지? 호오, 어디 보자.</t>
   </si>
   <si>
     <t xml:space="preserve">친애하는 로이텔 님,
@@ -3363,7 +3363,7 @@
     <t xml:space="preserve">그러니까, 나는 파산했고, 덤으로 2000만 오렌이라는 막대한 빚을 지게 됐다는 건가?</t>
   </si>
   <si>
-    <t xml:space="preserve">...그래, 그런 모양이다.</t>
+    <t xml:space="preserve">…그래, 그런 모양이다.</t>
   </si>
   <si>
     <t xml:space="preserve">미실리아로 돌아가면, 그 가짜 튤립을 한 번 구경하고 싶네.</t>
@@ -3700,7 +3700,7 @@
   </si>
   <si>
     <t xml:space="preserve">이런 건 모험가인 네가 더 잘 알고 있겠지만, 그래도 설명은 해 두지.
-속성 내성은 그 속성으로부터 받는 대미지를 대폭 경감하고, 화상이나 실명 같은 상태이상에 걸릴 확률로 낮추는 효과가 있다.
+속성 내성은 그 속성으로부터 받는 대미지를 대폭 경감하고, 화상이나 실명 같은 상태이상에 걸릴 확률도 낮추는 효과가 있다.
 또, 불이나 얼음 같은 속성공격을 받으면, 소지품이 불타 버리거나 얼어서 깨져버리는 경우도 있기 때문에 조심해야 해. 내성을 충분히 올리거나, 내열/내한 담요를 백팩 안에 넣어 두면 아이템이 파괴당하는 걸 막을 수 있어.</t>
   </si>
   <si>
@@ -5571,7 +5571,7 @@
         <v>89</v>
       </c>
       <c r="L106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" ht="13.8">
@@ -5588,7 +5588,7 @@
         <v>89</v>
       </c>
       <c r="L107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" ht="46.25">
@@ -5669,7 +5669,7 @@
         <v>89</v>
       </c>
       <c r="L113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="114" ht="23.85">
